--- a/ScenarioTestDocs-Mobile.xlsx
+++ b/ScenarioTestDocs-Mobile.xlsx
@@ -872,150 +872,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1023,15 +879,34 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1039,8 +914,133 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1259,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB957"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54:H59"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1281,22 +1281,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="90" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="91"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1349,22 +1349,22 @@
       <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="93" t="s">
+      <c r="E3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="94" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1417,15 +1417,15 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="86"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="51" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="21" t="s">
@@ -1463,7 +1463,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="57"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="9">
         <v>7</v>
       </c>
@@ -1534,10 +1534,10 @@
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="97"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="14" t="s">
         <v>14</v>
       </c>
@@ -1571,19 +1571,19 @@
       <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="47"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="17"/>
       <c r="G9" s="18" t="s">
         <v>63</v>
@@ -1591,7 +1591,7 @@
       <c r="H9" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="83" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="2"/>
@@ -1615,14 +1615,14 @@
       <c r="AB9" s="3"/>
     </row>
     <row r="10" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="46" t="s">
+      <c r="A10" s="50"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="58" t="s">
+      <c r="E10" s="49"/>
+      <c r="F10" s="46" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="19" t="s">
@@ -1631,7 +1631,7 @@
       <c r="H10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="62"/>
+      <c r="I10" s="84"/>
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -1653,21 +1653,21 @@
       <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="78" t="s">
+      <c r="A11" s="50"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="68"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="62"/>
+      <c r="I11" s="84"/>
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -1689,21 +1689,21 @@
       <c r="AB11" s="3"/>
     </row>
     <row r="12" spans="1:28" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="79" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="68"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="62"/>
+      <c r="I12" s="84"/>
       <c r="J12" s="2"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -1725,21 +1725,21 @@
       <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="79" t="s">
+      <c r="A13" s="50"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="68"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="47"/>
       <c r="G13" s="19" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="62"/>
+      <c r="I13" s="84"/>
       <c r="J13" s="2"/>
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
@@ -1761,18 +1761,18 @@
       <c r="AB13" s="3"/>
     </row>
     <row r="14" spans="1:28" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="58" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="70" t="s">
+      <c r="E14" s="49"/>
+      <c r="F14" s="93" t="s">
         <v>48</v>
       </c>
       <c r="G14" s="27" t="s">
@@ -1781,7 +1781,7 @@
       <c r="H14" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="45" t="s">
+      <c r="I14" s="89" t="s">
         <v>7</v>
       </c>
       <c r="J14" s="4"/>
@@ -1805,21 +1805,21 @@
       <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="46" t="s">
+      <c r="A15" s="50"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="71"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="19" t="s">
         <v>64</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="43"/>
+      <c r="I15" s="87"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1841,21 +1841,21 @@
       <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:28" s="26" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="56"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="79" t="s">
+      <c r="A16" s="50"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="71"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="94"/>
       <c r="G16" s="29" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="43"/>
+      <c r="I16" s="87"/>
       <c r="J16" s="25"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1877,21 +1877,21 @@
       <c r="AB16" s="3"/>
     </row>
     <row r="17" spans="1:28" s="31" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="81" t="s">
+      <c r="A17" s="50"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="82"/>
-      <c r="F17" s="71"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="94"/>
       <c r="G17" s="28" t="s">
         <v>45</v>
       </c>
       <c r="H17" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="43"/>
+      <c r="I17" s="87"/>
       <c r="J17" s="34"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1913,21 +1913,21 @@
       <c r="AB17" s="3"/>
     </row>
     <row r="18" spans="1:28" s="31" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="89" t="s">
+      <c r="A18" s="50"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="71"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="94"/>
       <c r="G18" s="19" t="s">
         <v>46</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="43"/>
+      <c r="I18" s="87"/>
       <c r="J18" s="34"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1949,21 +1949,21 @@
       <c r="AB18" s="3"/>
     </row>
     <row r="19" spans="1:28" s="31" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="87" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="88"/>
-      <c r="F19" s="71"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="94"/>
       <c r="G19" s="20" t="s">
         <v>47</v>
       </c>
       <c r="H19" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="43"/>
+      <c r="I19" s="87"/>
       <c r="J19" s="34"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1985,21 +1985,21 @@
       <c r="AB19" s="3"/>
     </row>
     <row r="20" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="83" t="s">
+      <c r="A20" s="52"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="84"/>
-      <c r="F20" s="72"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="95"/>
       <c r="G20" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H20" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="64"/>
+      <c r="I20" s="90"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -2021,18 +2021,18 @@
       <c r="AB20" s="3"/>
     </row>
     <row r="21" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="58" t="s">
+      <c r="B21" s="59"/>
+      <c r="C21" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="76"/>
-      <c r="F21" s="65" t="s">
+      <c r="E21" s="79"/>
+      <c r="F21" s="61" t="s">
         <v>57</v>
       </c>
       <c r="G21" s="19" t="s">
@@ -2041,7 +2041,7 @@
       <c r="H21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="67" t="s">
+      <c r="I21" s="91" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="3"/>
@@ -2065,21 +2065,21 @@
       <c r="AB21" s="3"/>
     </row>
     <row r="22" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="74"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="46" t="s">
+      <c r="A22" s="77"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="58"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="46"/>
       <c r="G22" s="19" t="s">
         <v>58</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="68"/>
+      <c r="I22" s="47"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -2101,21 +2101,21 @@
       <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="74"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="46" t="s">
+      <c r="A23" s="77"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="58"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="46"/>
       <c r="G23" s="19" t="s">
         <v>59</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="68"/>
+      <c r="I23" s="47"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -2137,21 +2137,21 @@
       <c r="AB23" s="3"/>
     </row>
     <row r="24" spans="1:28" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="75"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="49" t="s">
+      <c r="A24" s="78"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="66"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="33" t="s">
         <v>31</v>
       </c>
       <c r="H24" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="69"/>
+      <c r="I24" s="92"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -2173,18 +2173,18 @@
       <c r="AB24" s="3"/>
     </row>
     <row r="25" spans="1:28" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="58" t="s">
+      <c r="B25" s="59"/>
+      <c r="C25" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="70" t="s">
+      <c r="E25" s="49"/>
+      <c r="F25" s="93" t="s">
         <v>48</v>
       </c>
       <c r="G25" s="18" t="s">
@@ -2193,7 +2193,7 @@
       <c r="H25" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="89" t="s">
         <v>7</v>
       </c>
       <c r="J25" s="34"/>
@@ -2217,21 +2217,21 @@
       <c r="AB25" s="3"/>
     </row>
     <row r="26" spans="1:28" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="56"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="46" t="s">
+      <c r="A26" s="50"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="71"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="94"/>
       <c r="G26" s="19" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="43"/>
+      <c r="I26" s="87"/>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
@@ -2253,21 +2253,21 @@
       <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28" s="31" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="78" t="s">
+      <c r="A27" s="50"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="47"/>
-      <c r="F27" s="71"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="94"/>
       <c r="G27" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H27" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="43"/>
+      <c r="I27" s="87"/>
       <c r="J27" s="34"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -2289,21 +2289,21 @@
       <c r="AB27" s="3"/>
     </row>
     <row r="28" spans="1:28" s="31" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="79" t="s">
+      <c r="A28" s="50"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="80"/>
-      <c r="F28" s="71"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="94"/>
       <c r="G28" s="29" t="s">
         <v>24</v>
       </c>
       <c r="H28" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="43"/>
+      <c r="I28" s="87"/>
       <c r="J28" s="34"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -2325,21 +2325,21 @@
       <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28" s="31" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="81" t="s">
+      <c r="A29" s="50"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="82"/>
-      <c r="F29" s="71"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="94"/>
       <c r="G29" s="28" t="s">
         <v>45</v>
       </c>
       <c r="H29" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I29" s="43"/>
+      <c r="I29" s="87"/>
       <c r="J29" s="34"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -2361,20 +2361,20 @@
       <c r="AB29" s="3"/>
     </row>
     <row r="30" spans="1:28" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="73"/>
-      <c r="F30" s="65" t="s">
+      <c r="E30" s="64"/>
+      <c r="F30" s="61" t="s">
         <v>78</v>
       </c>
       <c r="G30" s="19" t="s">
@@ -2383,7 +2383,7 @@
       <c r="H30" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="61" t="s">
+      <c r="I30" s="83" t="s">
         <v>7</v>
       </c>
       <c r="J30" s="3"/>
@@ -2407,21 +2407,21 @@
       <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28" s="31" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="48" t="s">
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="55"/>
-      <c r="F31" s="58"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="46"/>
       <c r="G31" s="19" t="s">
         <v>79</v>
       </c>
       <c r="H31" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="I31" s="62"/>
+      <c r="I31" s="84"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -2443,21 +2443,21 @@
       <c r="AB31" s="3"/>
     </row>
     <row r="32" spans="1:28" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="48" t="s">
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="55"/>
-      <c r="F32" s="58"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="46"/>
       <c r="G32" s="32" t="s">
         <v>80</v>
       </c>
       <c r="H32" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="62"/>
+      <c r="I32" s="84"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -2479,21 +2479,21 @@
       <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="38" t="s">
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="58"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="46"/>
       <c r="G33" s="32" t="s">
         <v>80</v>
       </c>
       <c r="H33" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="I33" s="62"/>
+      <c r="I33" s="84"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2515,21 +2515,21 @@
       <c r="AB33" s="3"/>
     </row>
     <row r="34" spans="1:28" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="48" t="s">
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="55"/>
-      <c r="F34" s="58"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="46"/>
       <c r="G34" s="32" t="s">
         <v>81</v>
       </c>
       <c r="H34" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="62"/>
+      <c r="I34" s="84"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -2551,21 +2551,21 @@
       <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="38" t="s">
+      <c r="A35" s="59"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="58"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="46"/>
       <c r="G35" s="20" t="s">
         <v>82</v>
       </c>
       <c r="H35" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="I35" s="62"/>
+      <c r="I35" s="84"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -2588,20 +2588,20 @@
     </row>
     <row r="36" spans="1:28" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="60"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="38" t="s">
+      <c r="B36" s="59"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="66"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="62"/>
       <c r="G36" s="20" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="I36" s="63"/>
+      <c r="I36" s="85"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -2623,18 +2623,18 @@
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="58" t="s">
+      <c r="B37" s="59"/>
+      <c r="C37" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="73"/>
-      <c r="F37" s="42" t="s">
+      <c r="E37" s="64"/>
+      <c r="F37" s="86" t="s">
         <v>91</v>
       </c>
       <c r="G37" s="19" t="s">
@@ -2643,7 +2643,7 @@
       <c r="H37" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I37" s="45" t="s">
+      <c r="I37" s="89" t="s">
         <v>7</v>
       </c>
       <c r="J37" s="3"/>
@@ -2667,21 +2667,21 @@
       <c r="AB37" s="3"/>
     </row>
     <row r="38" spans="1:28" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="56"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="48" t="s">
+      <c r="A38" s="50"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="55"/>
-      <c r="F38" s="43"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="87"/>
       <c r="G38" s="19" t="s">
         <v>79</v>
       </c>
       <c r="H38" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="I38" s="43"/>
+      <c r="I38" s="87"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -2703,21 +2703,21 @@
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="48" t="s">
+      <c r="A39" s="50"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="55"/>
-      <c r="F39" s="43"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="87"/>
       <c r="G39" s="32" t="s">
         <v>80</v>
       </c>
       <c r="H39" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="I39" s="43"/>
+      <c r="I39" s="87"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -2739,21 +2739,21 @@
       <c r="AB39" s="3"/>
     </row>
     <row r="40" spans="1:28" s="26" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="56"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="38" t="s">
+      <c r="A40" s="50"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="43"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="87"/>
       <c r="G40" s="32" t="s">
         <v>80</v>
       </c>
       <c r="H40" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="I40" s="43"/>
+      <c r="I40" s="87"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -2775,21 +2775,21 @@
       <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28" s="26" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="56"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="48" t="s">
+      <c r="A41" s="50"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="55"/>
-      <c r="F41" s="43"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="87"/>
       <c r="G41" s="32" t="s">
         <v>81</v>
       </c>
       <c r="H41" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="I41" s="43"/>
+      <c r="I41" s="87"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -2811,21 +2811,21 @@
       <c r="AB41" s="3"/>
     </row>
     <row r="42" spans="1:28" s="26" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="56"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="38" t="s">
+      <c r="A42" s="50"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="39"/>
-      <c r="F42" s="43"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="87"/>
       <c r="G42" s="20" t="s">
         <v>82</v>
       </c>
       <c r="H42" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="I42" s="43"/>
+      <c r="I42" s="87"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -2847,21 +2847,21 @@
       <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28" s="26" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="56"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="38" t="s">
+      <c r="A43" s="50"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="39"/>
-      <c r="F43" s="43"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="87"/>
       <c r="G43" s="32" t="s">
         <v>81</v>
       </c>
       <c r="H43" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="I43" s="43"/>
+      <c r="I43" s="87"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -2883,21 +2883,21 @@
       <c r="AB43" s="3"/>
     </row>
     <row r="44" spans="1:28" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="56"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="40" t="s">
+      <c r="A44" s="50"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="41"/>
-      <c r="F44" s="43"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="87"/>
       <c r="G44" s="20" t="s">
         <v>90</v>
       </c>
       <c r="H44" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I44" s="43"/>
+      <c r="I44" s="87"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -2919,21 +2919,21 @@
       <c r="AB44" s="3"/>
     </row>
     <row r="45" spans="1:28" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="57"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="49" t="s">
+      <c r="A45" s="52"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="50"/>
-      <c r="F45" s="44"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="88"/>
       <c r="G45" s="20" t="s">
         <v>84</v>
       </c>
       <c r="H45" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="I45" s="44"/>
+      <c r="I45" s="88"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -2955,18 +2955,18 @@
       <c r="AB45" s="3"/>
     </row>
     <row r="46" spans="1:28" s="26" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="58" t="s">
+      <c r="B46" s="59"/>
+      <c r="C46" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="52" t="s">
+      <c r="D46" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="73"/>
-      <c r="F46" s="42" t="s">
+      <c r="E46" s="64"/>
+      <c r="F46" s="86" t="s">
         <v>101</v>
       </c>
       <c r="G46" s="19" t="s">
@@ -2975,7 +2975,7 @@
       <c r="H46" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I46" s="45" t="s">
+      <c r="I46" s="89" t="s">
         <v>7</v>
       </c>
       <c r="J46" s="3"/>
@@ -2999,21 +2999,21 @@
       <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28" s="26" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="56"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="48" t="s">
+      <c r="A47" s="50"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="55"/>
-      <c r="F47" s="43"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="87"/>
       <c r="G47" s="35" t="s">
         <v>80</v>
       </c>
       <c r="H47" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="I47" s="43"/>
+      <c r="I47" s="87"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -3035,21 +3035,21 @@
       <c r="AB47" s="3"/>
     </row>
     <row r="48" spans="1:28" s="26" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="56"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="48" t="s">
+      <c r="A48" s="50"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="55"/>
-      <c r="F48" s="43"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="87"/>
       <c r="G48" s="35" t="s">
         <v>80</v>
       </c>
       <c r="H48" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="43"/>
+      <c r="I48" s="87"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -3071,21 +3071,21 @@
       <c r="AB48" s="3"/>
     </row>
     <row r="49" spans="1:28" s="26" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="56"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="38" t="s">
+      <c r="A49" s="50"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="E49" s="39"/>
-      <c r="F49" s="43"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="87"/>
       <c r="G49" s="35" t="s">
         <v>80</v>
       </c>
       <c r="H49" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="I49" s="43"/>
+      <c r="I49" s="87"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -3107,21 +3107,21 @@
       <c r="AB49" s="3"/>
     </row>
     <row r="50" spans="1:28" s="26" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="56"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="48" t="s">
+      <c r="A50" s="50"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="55"/>
-      <c r="F50" s="43"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="87"/>
       <c r="G50" s="35" t="s">
         <v>81</v>
       </c>
       <c r="H50" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="I50" s="43"/>
+      <c r="I50" s="87"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -3143,21 +3143,21 @@
       <c r="AB50" s="3"/>
     </row>
     <row r="51" spans="1:28" s="26" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="56"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="38" t="s">
+      <c r="A51" s="50"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="E51" s="39"/>
-      <c r="F51" s="43"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="87"/>
       <c r="G51" s="37" t="s">
         <v>84</v>
       </c>
       <c r="H51" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="I51" s="43"/>
+      <c r="I51" s="87"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -3179,21 +3179,21 @@
       <c r="AB51" s="3"/>
     </row>
     <row r="52" spans="1:28" s="26" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="56"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="38" t="s">
+      <c r="A52" s="50"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="E52" s="39"/>
-      <c r="F52" s="43"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="87"/>
       <c r="G52" s="35" t="s">
         <v>80</v>
       </c>
       <c r="H52" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="I52" s="43"/>
+      <c r="I52" s="87"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -3215,21 +3215,21 @@
       <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="1:28" s="26" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="57"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="90" t="s">
+      <c r="A53" s="52"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="E53" s="99"/>
-      <c r="F53" s="44"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="88"/>
       <c r="G53" s="37" t="s">
         <v>104</v>
       </c>
       <c r="H53" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="I53" s="44"/>
+      <c r="I53" s="88"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -3251,25 +3251,25 @@
       <c r="AB53" s="3"/>
     </row>
     <row r="54" spans="1:28" s="26" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="59" t="s">
+      <c r="A54" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="54"/>
-      <c r="C54" s="58" t="s">
+      <c r="B54" s="59"/>
+      <c r="C54" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="52" t="s">
+      <c r="D54" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="73"/>
-      <c r="F54" s="42"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="86"/>
       <c r="G54" s="37" t="s">
         <v>84</v>
       </c>
       <c r="H54" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="I54" s="45" t="s">
+      <c r="I54" s="89" t="s">
         <v>7</v>
       </c>
       <c r="J54" s="3"/>
@@ -3293,21 +3293,21 @@
       <c r="AB54" s="3"/>
     </row>
     <row r="55" spans="1:28" s="26" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="48" t="s">
+      <c r="A55" s="59"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="E55" s="55"/>
-      <c r="F55" s="43"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="87"/>
       <c r="G55" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H55" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I55" s="43"/>
+      <c r="I55" s="87"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -3329,21 +3329,21 @@
       <c r="AB55" s="3"/>
     </row>
     <row r="56" spans="1:28" s="26" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="48" t="s">
+      <c r="A56" s="59"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="E56" s="55"/>
-      <c r="F56" s="43"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="87"/>
       <c r="G56" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H56" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I56" s="43"/>
+      <c r="I56" s="87"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -3365,21 +3365,21 @@
       <c r="AB56" s="3"/>
     </row>
     <row r="57" spans="1:28" s="26" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="38" t="s">
+      <c r="A57" s="59"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="43"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="87"/>
       <c r="G57" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H57" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I57" s="43"/>
+      <c r="I57" s="87"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -3401,21 +3401,21 @@
       <c r="AB57" s="3"/>
     </row>
     <row r="58" spans="1:28" s="26" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="48" t="s">
+      <c r="A58" s="59"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="E58" s="55"/>
-      <c r="F58" s="43"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="87"/>
       <c r="G58" s="35" t="s">
         <v>80</v>
       </c>
       <c r="H58" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="I58" s="43"/>
+      <c r="I58" s="87"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -3437,21 +3437,21 @@
       <c r="AB58" s="3"/>
     </row>
     <row r="59" spans="1:28" s="26" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="38" t="s">
+      <c r="A59" s="59"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="E59" s="39"/>
-      <c r="F59" s="43"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="87"/>
       <c r="G59" s="30" t="s">
         <v>109</v>
       </c>
       <c r="H59" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="I59" s="43"/>
+      <c r="I59" s="87"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -7794,72 +7794,8 @@
     <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="C30:C36"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F30:F36"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="C37:C45"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B9:B29"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="I30:I36"/>
-    <mergeCell ref="F37:F45"/>
-    <mergeCell ref="I37:I45"/>
-    <mergeCell ref="F46:F53"/>
-    <mergeCell ref="I46:I53"/>
-    <mergeCell ref="I14:I20"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="F14:F20"/>
-    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
     <mergeCell ref="I25:I29"/>
     <mergeCell ref="C54:C59"/>
     <mergeCell ref="D50:E50"/>
@@ -7874,9 +7810,41 @@
     <mergeCell ref="I54:I59"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B30:B59"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
+    <mergeCell ref="I14:I20"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="F14:F20"/>
+    <mergeCell ref="I30:I36"/>
+    <mergeCell ref="F37:F45"/>
+    <mergeCell ref="I37:I45"/>
+    <mergeCell ref="F46:F53"/>
+    <mergeCell ref="I46:I53"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B9:B29"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="C37:C45"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B30:B59"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="A46:A53"/>
@@ -7886,8 +7854,40 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F30:F36"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
